--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_34.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_34.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,12 +991,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SCOHRHO</t>
         </is>
       </c>
       <c r="F15">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F16">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LIOCDEP</t>
         </is>
       </c>
       <c r="F18">
@@ -1140,49 +1140,6 @@
         </is>
       </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
